--- a/static/uploads/E-Commerce2023/group_list.xlsx
+++ b/static/uploads/E-Commerce2023/group_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWIFT-DESKTOP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809265A1-7201-4D7B-977F-CE43395E4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -196,12 +202,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -209,8 +215,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,17 +269,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +325,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -338,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,9 +394,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,14 +570,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2022362022</v>
       </c>
@@ -576,7 +604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2022362026</v>
       </c>
@@ -587,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2022362017</v>
       </c>
@@ -598,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2022362023</v>
       </c>
@@ -609,7 +637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2022362029</v>
       </c>
@@ -620,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2022362011</v>
       </c>
@@ -631,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2022362051</v>
       </c>
@@ -642,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2022362014</v>
       </c>
@@ -653,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2022362058</v>
       </c>
@@ -664,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2022362036</v>
       </c>
@@ -675,7 +703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2022362009</v>
       </c>
@@ -686,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2022362042</v>
       </c>
@@ -697,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2022362044</v>
       </c>
@@ -708,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2022362046</v>
       </c>
@@ -719,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2022362049</v>
       </c>
@@ -730,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2022362013</v>
       </c>
@@ -738,10 +766,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2022362034</v>
       </c>
@@ -752,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2022362016</v>
       </c>
@@ -763,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2022362018</v>
       </c>
@@ -774,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2022362003</v>
       </c>
@@ -785,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2022362019</v>
       </c>
@@ -796,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2022362050</v>
       </c>
@@ -807,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2022362043</v>
       </c>
@@ -818,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2022362048</v>
       </c>
@@ -829,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2022362045</v>
       </c>
@@ -840,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2022362030</v>
       </c>
@@ -851,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2022362015</v>
       </c>
@@ -859,10 +887,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2022362032</v>
       </c>
@@ -873,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2022362004</v>
       </c>
@@ -884,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2022362006</v>
       </c>
@@ -895,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2022362060</v>
       </c>
@@ -906,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2022362033</v>
       </c>
@@ -917,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2022362040</v>
       </c>
@@ -928,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2022362028</v>
       </c>
@@ -939,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2022362025</v>
       </c>
@@ -950,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2022362047</v>
       </c>
@@ -961,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2022362053</v>
       </c>
@@ -969,10 +997,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2022362020</v>
       </c>
@@ -983,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2022362002</v>
       </c>
@@ -994,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2022362027</v>
       </c>
@@ -1005,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2022362037</v>
       </c>
@@ -1016,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2022362010</v>
       </c>
@@ -1027,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2022362035</v>
       </c>
@@ -1038,7 +1066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2022362012</v>
       </c>
@@ -1046,10 +1074,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2022362041</v>
       </c>
@@ -1060,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2022362021</v>
       </c>
@@ -1068,10 +1096,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2022362057</v>
       </c>
@@ -1082,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2022362059</v>
       </c>
@@ -1093,7 +1121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>2022362055</v>
       </c>
@@ -1104,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>2022362056</v>
       </c>
@@ -1115,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2022362001</v>
       </c>
@@ -1126,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2022362031</v>
       </c>
@@ -1137,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>2022362052</v>
       </c>
@@ -1145,10 +1173,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>2022362008</v>
       </c>
@@ -1159,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>2022362005</v>
       </c>
@@ -1170,7 +1198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>2022362024</v>
       </c>
@@ -1182,6 +1210,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>